--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEAF4B4-606E-4B82-8F2C-10676BAC5FC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6C09F5-ED3D-4CC0-8045-26959296C616}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="49">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -323,6 +323,10 @@
     <rPh sb="0" eb="2">
       <t>カイシャ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォント</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -436,15 +440,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -455,6 +450,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -741,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S34"/>
+  <dimension ref="B1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -753,9 +757,12 @@
     <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="8" max="9" width="12.875" customWidth="1"/>
-    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="1.625" customWidth="1"/>
+    <col min="7" max="7" width="1.875" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="10" width="4.75" customWidth="1"/>
+    <col min="11" max="11" width="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="17.25" customHeight="1"/>
@@ -772,17 +779,17 @@
       <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="7">
         <f>N17</f>
-        <v>9.375E-2</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="2:19" ht="18.75" customHeight="1">
       <c r="B3" s="1" t="s">
@@ -815,7 +822,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
-      <c r="S3" s="9"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="2:19" ht="18.75" customHeight="1">
       <c r="B4" s="1" t="s">
@@ -833,7 +840,7 @@
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -846,7 +853,7 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
-      <c r="S4" s="9"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="2:19" ht="18.75" customHeight="1">
       <c r="B5" s="1" t="s">
@@ -877,7 +884,7 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="9"/>
+      <c r="S5" s="6"/>
     </row>
     <row r="6" spans="2:19" ht="18.75" customHeight="1">
       <c r="B6" s="1" t="s">
@@ -895,7 +902,7 @@
       <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -908,7 +915,7 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="9"/>
+      <c r="S6" s="6"/>
     </row>
     <row r="7" spans="2:19" ht="18.75" customHeight="1">
       <c r="B7" s="1" t="s">
@@ -917,7 +924,9 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
@@ -927,7 +936,7 @@
       <c r="I7" s="2"/>
       <c r="L7" s="13">
         <f>N17</f>
-        <v>9.375E-2</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -935,7 +944,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" spans="2:19" ht="18.75" customHeight="1">
       <c r="B8" s="1" t="s">
@@ -944,7 +953,9 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
@@ -958,7 +969,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
-      <c r="S8" s="9"/>
+      <c r="S8" s="6"/>
     </row>
     <row r="9" spans="2:19" ht="18.75" customHeight="1">
       <c r="B9" s="1" t="s">
@@ -967,7 +978,9 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
@@ -978,7 +991,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
-      <c r="S9" s="9"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" spans="2:19" ht="18.75" customHeight="1">
       <c r="B10" s="1" t="s">
@@ -987,9 +1000,11 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -998,7 +1013,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="6"/>
     </row>
     <row r="11" spans="2:19" ht="18.75" customHeight="1">
       <c r="B11" s="1" t="s">
@@ -1018,7 +1033,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
-      <c r="S11" s="9"/>
+      <c r="S11" s="6"/>
     </row>
     <row r="12" spans="2:19" ht="18.75" customHeight="1">
       <c r="B12" s="1" t="s">
@@ -1038,7 +1053,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
-      <c r="S12" s="9"/>
+      <c r="S12" s="6"/>
     </row>
     <row r="13" spans="2:19" ht="18.75" customHeight="1">
       <c r="B13" s="1" t="s">
@@ -1058,7 +1073,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
-      <c r="S13" s="9"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="2:19" ht="18.75" customHeight="1">
       <c r="B14" s="1" t="s">
@@ -1078,11 +1093,11 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="2:19" ht="18.75" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -1091,18 +1106,18 @@
       <c r="E15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
@@ -1111,15 +1126,15 @@
       <c r="E16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="4"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
@@ -1133,16 +1148,16 @@
       </c>
       <c r="M17" s="1">
         <f>COUNTIF($E$3:$E$53,"〇")</f>
-        <v>3</v>
-      </c>
-      <c r="N17" s="8">
+        <v>4</v>
+      </c>
+      <c r="N17" s="5">
         <f>M17/M20</f>
-        <v>9.375E-2</v>
+        <v>0.12121212121212122</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>19</v>
@@ -1158,17 +1173,17 @@
         <f>COUNTIF($E$3:$E$53,"△")</f>
         <v>1</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="5">
         <f>M18/M20</f>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="18" customHeight="1">
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -1181,37 +1196,37 @@
         <f>COUNTIF($E$3:$E$53,"×")</f>
         <v>28</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="5">
         <f>M19/M20</f>
-        <v>0.875</v>
+        <v>0.84848484848484851</v>
       </c>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="4">
         <f>M17+M18+M19</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -1220,10 +1235,10 @@
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -1235,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -1247,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -1255,11 +1270,11 @@
       </c>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>18</v>
+      <c r="B25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -1268,10 +1283,10 @@
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -1280,10 +1295,10 @@
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -1292,10 +1307,10 @@
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -1304,10 +1319,10 @@
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
@@ -1316,10 +1331,10 @@
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
@@ -1328,10 +1343,10 @@
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
@@ -1340,10 +1355,10 @@
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
@@ -1351,11 +1366,11 @@
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>43</v>
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
@@ -1366,7 +1381,7 @@
       <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="1"/>
@@ -1374,7 +1389,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E34">
+    <sortCondition ref="B3"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="L16:N16"/>
     <mergeCell ref="L3:R6"/>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6C09F5-ED3D-4CC0-8045-26959296C616}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09B3520-DF37-46B8-84C9-4FD3C8907899}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B29" activeCellId="1" sqref="B18 B29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09B3520-DF37-46B8-84C9-4FD3C8907899}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5689AFA5-1033-441D-A547-91DBFBD5D897}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -183,13 +183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>電線</t>
-    <rPh sb="0" eb="2">
-      <t>デンセン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>油</t>
     <rPh sb="0" eb="1">
       <t>アブラ</t>
@@ -206,10 +199,6 @@
   </si>
   <si>
     <t>ミサイル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アーム</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -745,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S35"/>
+  <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B29" activeCellId="1" sqref="B18 B29:E29"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -777,11 +766,11 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L2" s="7">
         <f>N17</f>
-        <v>0.12121212121212122</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -799,22 +788,22 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -832,19 +821,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -863,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -894,19 +883,19 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -925,18 +914,18 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2"/>
       <c r="L7" s="13">
         <f>N17</f>
-        <v>0.12121212121212122</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -954,13 +943,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -979,10 +968,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -1001,10 +990,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -1024,7 +1013,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -1044,7 +1033,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -1064,7 +1053,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -1084,7 +1073,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -1104,7 +1093,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1124,10 +1113,10 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="11"/>
@@ -1141,18 +1130,18 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M17" s="1">
-        <f>COUNTIF($E$3:$E$53,"〇")</f>
+        <f>COUNTIF($E$3:$E$51,"〇")</f>
         <v>4</v>
       </c>
       <c r="N17" s="5">
         <f>M17/M20</f>
-        <v>0.12121212121212122</v>
+        <v>0.12903225806451613</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -1164,18 +1153,18 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M18" s="1">
-        <f>COUNTIF($E$3:$E$53,"△")</f>
+        <f>COUNTIF($E$3:$E$51,"△")</f>
         <v>1</v>
       </c>
       <c r="N18" s="5">
         <f>M18/M20</f>
-        <v>3.0303030303030304E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="18" customHeight="1">
@@ -1187,18 +1176,18 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="1">
-        <f>COUNTIF($E$3:$E$53,"×")</f>
-        <v>28</v>
+        <f>COUNTIF($E$3:$E$51,"×")</f>
+        <v>26</v>
       </c>
       <c r="N19" s="5">
         <f>M19/M20</f>
-        <v>0.84848484848484851</v>
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="20" spans="2:14">
@@ -1210,14 +1199,14 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M20" s="4">
         <f>M17+M18+M19</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N20" s="1"/>
     </row>
@@ -1230,7 +1219,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:14">
@@ -1242,167 +1231,143 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>24</v>
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>43</v>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E32">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="3">

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5689AFA5-1033-441D-A547-91DBFBD5D897}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B8EDCC-B3BB-444F-9BD3-9DCD4AD5A4B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="57">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -316,6 +316,50 @@
   </si>
   <si>
     <t>フォント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩き</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイレン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステレス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -734,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S33"/>
+  <dimension ref="B1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -746,8 +790,7 @@
     <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
-    <col min="6" max="6" width="1.625" customWidth="1"/>
-    <col min="7" max="7" width="1.875" customWidth="1"/>
+    <col min="6" max="7" width="1.625" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="6.5" customWidth="1"/>
     <col min="10" max="10" width="4.75" customWidth="1"/>
@@ -770,7 +813,7 @@
       </c>
       <c r="L2" s="7">
         <f>N17</f>
-        <v>0.12903225806451613</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -925,7 +968,7 @@
       <c r="I7" s="2"/>
       <c r="L7" s="13">
         <f>N17</f>
-        <v>0.12903225806451613</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -1141,7 +1184,7 @@
       </c>
       <c r="N17" s="5">
         <f>M17/M20</f>
-        <v>0.12903225806451613</v>
+        <v>0.10256410256410256</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -1164,7 +1207,7 @@
       </c>
       <c r="N18" s="5">
         <f>M18/M20</f>
-        <v>3.2258064516129031E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="18" customHeight="1">
@@ -1183,11 +1226,11 @@
       </c>
       <c r="M19" s="1">
         <f>COUNTIF($E$3:$E$51,"×")</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N19" s="5">
         <f>M19/M20</f>
-        <v>0.83870967741935487</v>
+        <v>0.87179487179487181</v>
       </c>
     </row>
     <row r="20" spans="2:14">
@@ -1206,7 +1249,7 @@
       </c>
       <c r="M20" s="4">
         <f>M17+M18+M19</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N20" s="1"/>
     </row>
@@ -1363,6 +1406,102 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1388,5 +1527,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B8EDCC-B3BB-444F-9BD3-9DCD4AD5A4B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC3020D-32A1-49C1-AA85-AB99D7921799}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -191,10 +191,6 @@
   </si>
   <si>
     <t>バランスボール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マウス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -778,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S41"/>
+  <dimension ref="B1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -809,11 +805,11 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="7">
         <f>N17</f>
-        <v>0.10256410256410256</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -831,22 +827,22 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -864,19 +860,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -895,19 +891,19 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -926,19 +922,19 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -957,18 +953,18 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2"/>
       <c r="L7" s="13">
         <f>N17</f>
-        <v>0.10256410256410256</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -986,13 +982,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -1011,10 +1007,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -1033,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -1056,7 +1052,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -1076,7 +1072,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -1096,7 +1092,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -1116,7 +1112,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -1136,7 +1132,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1156,10 +1152,10 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="11"/>
@@ -1173,18 +1169,18 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M17" s="1">
-        <f>COUNTIF($E$3:$E$51,"〇")</f>
+        <f>COUNTIF($E$3:$E$49,"〇")</f>
         <v>4</v>
       </c>
       <c r="N17" s="5">
         <f>M17/M20</f>
-        <v>0.10256410256410256</v>
+        <v>0.10810810810810811</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -1196,18 +1192,18 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18" s="1">
-        <f>COUNTIF($E$3:$E$51,"△")</f>
+        <f>COUNTIF($E$3:$E$49,"△")</f>
         <v>1</v>
       </c>
       <c r="N18" s="5">
         <f>M18/M20</f>
-        <v>2.564102564102564E-2</v>
+        <v>2.7027027027027029E-2</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="18" customHeight="1">
@@ -1219,18 +1215,18 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M19" s="1">
-        <f>COUNTIF($E$3:$E$51,"×")</f>
-        <v>34</v>
+        <f>COUNTIF($E$3:$E$49,"×")</f>
+        <v>32</v>
       </c>
       <c r="N19" s="5">
         <f>M19/M20</f>
-        <v>0.87179487179487181</v>
+        <v>0.86486486486486491</v>
       </c>
     </row>
     <row r="20" spans="2:14">
@@ -1242,14 +1238,14 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M20" s="4">
         <f>M17+M18+M19</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N20" s="1"/>
     </row>
@@ -1262,251 +1258,227 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>23</v>
+      <c r="B22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E30">
     <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="3">

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC3020D-32A1-49C1-AA85-AB99D7921799}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54688045-1F8D-4D09-A304-DF67A11957BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="57">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -356,6 +356,10 @@
   </si>
   <si>
     <t>ステレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -776,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1050,7 +1054,9 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1070,9 +1076,11 @@
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -1090,7 +1098,9 @@
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1110,7 +1120,9 @@
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1268,7 +1280,9 @@
       <c r="C22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1364,7 +1378,9 @@
       <c r="C30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1376,7 +1392,9 @@
       <c r="C31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1388,7 +1406,9 @@
       <c r="C32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1400,7 +1420,9 @@
       <c r="C33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1412,7 +1434,9 @@
       <c r="C34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1424,7 +1448,9 @@
       <c r="C35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1436,7 +1462,9 @@
       <c r="C36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1448,7 +1476,9 @@
       <c r="C37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1460,7 +1490,9 @@
       <c r="C38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>32</v>
       </c>
@@ -1472,7 +1504,9 @@
       <c r="C39" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E39" s="1" t="s">
         <v>32</v>
       </c>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54688045-1F8D-4D09-A304-DF67A11957BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C120FF-9228-4D25-8194-191B38B33548}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S39"/>
+  <dimension ref="B1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -790,15 +790,15 @@
     <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
-    <col min="6" max="7" width="1.625" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="6.5" customWidth="1"/>
-    <col min="10" max="10" width="4.75" customWidth="1"/>
-    <col min="11" max="11" width="2" customWidth="1"/>
+    <col min="6" max="6" width="1.625" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="1.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="17.25" customHeight="1"/>
-    <row r="2" spans="2:19" ht="18.75" customHeight="1">
+    <row r="1" spans="2:18" ht="17.25" customHeight="1"/>
+    <row r="2" spans="2:18" ht="18.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,341 +811,330 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="7">
-        <f>N17</f>
+      <c r="K2" s="7">
+        <f>M17</f>
         <v>0.10810810810810811</v>
       </c>
+      <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="2:19" ht="18.75" customHeight="1">
+    </row>
+    <row r="3" spans="2:18" ht="18.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="2:19" ht="18.75" customHeight="1">
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="2:18" ht="18.75" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="6"/>
-    </row>
-    <row r="5" spans="2:19" ht="18.75" customHeight="1">
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="2:18" ht="18.75" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="2:19" ht="18.75" customHeight="1">
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="2:18" ht="18.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="2:19" ht="18.75" customHeight="1">
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="2:18" ht="18.75" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="L7" s="13">
-        <f>N17</f>
+      <c r="H7" s="2"/>
+      <c r="K7" s="13">
+        <f>M17</f>
         <v>0.10810810810810811</v>
       </c>
+      <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="2:19" ht="18.75" customHeight="1">
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="2:18" ht="18.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="2:19" ht="18.75" customHeight="1">
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="2:18" ht="18.75" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="2:19" ht="18.75" customHeight="1">
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="2:18" ht="18.75" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="2:19" ht="18.75" customHeight="1">
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="2:18" ht="18.75" customHeight="1">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="2:19" ht="18.75" customHeight="1">
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="2:18" ht="18.75" customHeight="1">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="2:19" ht="18.75" customHeight="1">
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="2:18" ht="18.75" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="6"/>
-    </row>
-    <row r="14" spans="2:19" ht="18.75" customHeight="1">
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="2:18" ht="18.75" customHeight="1">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="6"/>
-    </row>
-    <row r="15" spans="2:19" ht="18.75" customHeight="1">
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="2:18" ht="18.75" customHeight="1">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -1153,143 +1142,154 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-    </row>
-    <row r="16" spans="2:19">
+    </row>
+    <row r="16" spans="2:18">
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="2:14">
+      <c r="L16" s="10"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="1">
+      <c r="L17" s="1">
         <f>COUNTIF($E$3:$E$49,"〇")</f>
         <v>4</v>
       </c>
-      <c r="N17" s="5">
-        <f>M17/M20</f>
+      <c r="M17" s="5">
+        <f>L17/L20</f>
         <v>0.10810810810810811</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:13">
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="1">
+      <c r="L18" s="1">
         <f>COUNTIF($E$3:$E$49,"△")</f>
         <v>1</v>
       </c>
-      <c r="N18" s="5">
-        <f>M18/M20</f>
+      <c r="M18" s="5">
+        <f>L18/L20</f>
         <v>2.7027027027027029E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="18" customHeight="1">
+    <row r="19" spans="2:13" ht="18" customHeight="1">
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="1">
+      <c r="L19" s="1">
         <f>COUNTIF($E$3:$E$49,"×")</f>
         <v>32</v>
       </c>
-      <c r="N19" s="5">
-        <f>M19/M20</f>
+      <c r="M19" s="5">
+        <f>L19/L20</f>
         <v>0.86486486486486491</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:13">
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="4">
-        <f>M17+M18+M19</f>
+      <c r="L20" s="4">
+        <f>L17+L18+L19</f>
         <v>37</v>
       </c>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="2:14">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>40</v>
+    <row r="22" spans="2:13">
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:13">
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
@@ -1299,9 +1299,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:13">
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>17</v>
@@ -1311,9 +1311,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:13">
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>18</v>
@@ -1323,9 +1323,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:13">
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>19</v>
@@ -1335,9 +1335,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:13">
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -1347,9 +1347,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:13">
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>21</v>
@@ -1359,9 +1359,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:13">
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>22</v>
@@ -1371,21 +1371,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="1" t="s">
-        <v>42</v>
+    <row r="30" spans="2:13">
+      <c r="B30" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1399,15 +1399,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:13">
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>32</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>35</v>
@@ -1429,13 +1429,13 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>32</v>
@@ -1446,7 +1446,7 @@
         <v>50</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>35</v>
@@ -1460,7 +1460,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>35</v>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>36</v>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>35</v>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>35</v>
@@ -1512,24 +1512,21 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E30">
-    <sortCondition ref="B3"/>
-  </sortState>
   <mergeCells count="3">
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L3:R6"/>
-    <mergeCell ref="L7:R14"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K3:Q6"/>
+    <mergeCell ref="K7:Q14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{3A86D3E2-6260-46D7-8B1A-F07B604E82DB}">
+      <formula1>$H$4:$H$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{947DE85F-9DEA-4262-A8CA-8C4B2360CEBD}">
       <formula1>$I$4:$I$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{947DE85F-9DEA-4262-A8CA-8C4B2360CEBD}">
-      <formula1>$J$4:$J$6</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{7282A0AD-45C2-43B2-AF8B-049C0EFFE9D3}">
-      <formula1>$H$4:$H$8</formula1>
+      <formula1>$G$4:$G$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C120FF-9228-4D25-8194-191B38B33548}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526A2824-1131-4834-8FA5-AEBF08D69461}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -360,6 +360,10 @@
   </si>
   <si>
     <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -778,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R39"/>
+  <dimension ref="B1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -813,7 +817,7 @@
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.10810810810810811</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -960,7 +964,7 @@
       <c r="H7" s="2"/>
       <c r="K7" s="13">
         <f>M17</f>
-        <v>0.10810810810810811</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -1184,7 +1188,7 @@
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.10810810810810811</v>
+        <v>0.10526315789473684</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1209,7 +1213,7 @@
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>2.7027027027027029E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
@@ -1230,11 +1234,11 @@
       </c>
       <c r="L19" s="1">
         <f>COUNTIF($E$3:$E$49,"×")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>0.86486486486486491</v>
+        <v>0.86842105263157898</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -1255,7 +1259,7 @@
       </c>
       <c r="L20" s="4">
         <f>L17+L18+L19</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M20" s="1"/>
     </row>
@@ -1508,6 +1512,20 @@
         <v>35</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>32</v>
       </c>
     </row>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526A2824-1131-4834-8FA5-AEBF08D69461}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397641E1-5A59-47BF-87F0-C181E5BE017F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="58">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -782,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R40"/>
+  <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -817,7 +817,7 @@
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.10526315789473684</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -964,7 +964,7 @@
       <c r="H7" s="2"/>
       <c r="K7" s="13">
         <f>M17</f>
-        <v>0.10526315789473684</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.10526315789473684</v>
+        <v>0.10256410256410256</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>2.6315789473684209E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
@@ -1234,11 +1234,11 @@
       </c>
       <c r="L19" s="1">
         <f>COUNTIF($E$3:$E$49,"×")</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>0.86842105263157898</v>
+        <v>0.87179487179487181</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="L20" s="4">
         <f>L17+L18+L19</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M20" s="1"/>
     </row>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>35</v>
@@ -1422,7 +1422,7 @@
         <v>50</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>35</v>
@@ -1436,10 +1436,10 @@
         <v>50</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>32</v>
@@ -1450,10 +1450,10 @@
         <v>50</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>32</v>
@@ -1464,7 +1464,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>35</v>
@@ -1475,13 +1475,13 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>32</v>
@@ -1492,10 +1492,10 @@
         <v>46</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>32</v>
@@ -1506,7 +1506,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>35</v>
@@ -1520,16 +1520,33 @@
         <v>46</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E41">
+    <sortCondition descending="1" ref="B41"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="K3:Q6"/>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397641E1-5A59-47BF-87F0-C181E5BE017F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F90357-5D60-437B-9DAC-A26D37C7A5EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="リスト" sheetId="1" r:id="rId1"/>
+    <sheet name="BGM,SE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="69">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -364,6 +365,47 @@
   </si>
   <si>
     <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://commons.nicovideo.jp/material/nc164683</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://taira-komori.jpn.org/attack01.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーケード　アクション０１－１（ジャンプ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://commons.nicovideo.jp/material/nc172043</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE　警報　サイレン　パターン2</t>
+  </si>
+  <si>
+    <t>http://commons.nicovideo.jp/material/nc173466</t>
+  </si>
+  <si>
+    <t>【効果音】侵入者現るサイレン音</t>
+  </si>
+  <si>
+    <t>https://otologic.jp/free/se/throw01.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイング01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -371,7 +413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +438,14 @@
     <font>
       <sz val="72"/>
       <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -470,10 +520,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -502,8 +553,11 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -784,13 +838,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView topLeftCell="A21" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="1" max="1" width="0.75" customWidth="1"/>
     <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
@@ -1567,4 +1621,161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46B1E65-C5A6-4AA1-934F-537B33F93E9F}">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="1.375" customWidth="1"/>
+    <col min="2" max="2" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="43.875" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1"/>
+      <c r="C7" s="8"/>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B12" xr:uid="{9F143224-39DE-409B-B223-8FC10CEC14F4}">
+      <formula1>$H$5:$H$10</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{5274FBE6-A067-451D-A4BB-B4B27A138189}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{58C13F98-3E2A-4358-8AA4-5741BD54B002}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{F1CD8338-9147-4009-BDAF-CA99803FB3BC}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{D249F57D-F0E0-4B5F-872A-AA8B48924C77}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F90357-5D60-437B-9DAC-A26D37C7A5EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826231C9-BCC7-4156-AF57-F8BCFBF86529}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -871,7 +871,7 @@
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.10256410256410256</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1018,7 +1018,7 @@
       <c r="H7" s="2"/>
       <c r="K7" s="13">
         <f>M17</f>
-        <v>0.10256410256410256</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -1168,7 +1168,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -1238,11 +1238,11 @@
       </c>
       <c r="L17" s="1">
         <f>COUNTIF($E$3:$E$49,"〇")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.10256410256410256</v>
+        <v>0.12820512820512819</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="L19" s="1">
         <f>COUNTIF($E$3:$E$49,"×")</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>0.87179487179487181</v>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -1627,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46B1E65-C5A6-4AA1-934F-537B33F93E9F}">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826231C9-BCC7-4156-AF57-F8BCFBF86529}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF63B052-9696-4140-B1E8-207DAAB6F9E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -407,13 +407,37 @@
   <si>
     <t>スイング01</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.lanstarfreebgm.com/jinguru-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameOver2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clear5</t>
+  </si>
+  <si>
+    <t>http://commons.nicovideo.jp/material/nc177857</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>潜入</t>
+  </si>
+  <si>
+    <t>http://commons.nicovideo.jp/material/nc109223</t>
+  </si>
+  <si>
+    <t>《潜入！》コミカルな音楽</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +472,14 @@
       <color theme="10"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -524,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -555,6 +587,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -838,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1625,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46B1E65-C5A6-4AA1-934F-537B33F93E9F}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1743,30 +1776,55 @@
       <c r="C10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="15"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="8"/>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B12" xr:uid="{9F143224-39DE-409B-B223-8FC10CEC14F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B13" xr:uid="{9F143224-39DE-409B-B223-8FC10CEC14F4}">
       <formula1>$H$5:$H$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -1775,6 +1833,9 @@
     <hyperlink ref="E4" r:id="rId2" xr:uid="{58C13F98-3E2A-4358-8AA4-5741BD54B002}"/>
     <hyperlink ref="E6" r:id="rId3" xr:uid="{F1CD8338-9147-4009-BDAF-CA99803FB3BC}"/>
     <hyperlink ref="E8" r:id="rId4" xr:uid="{D249F57D-F0E0-4B5F-872A-AA8B48924C77}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{568CF0AD-D207-4E96-896E-D3C3A26496F6}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{B20C8142-5EC2-43ED-91A2-495C24918BD2}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{02A2F903-859E-4050-AF17-CDDE73662257}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF63B052-9696-4140-B1E8-207DAAB6F9E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC71F274-7440-4D0C-B8BD-8EC1DE1CBD2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="76">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -556,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -585,9 +585,8 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -871,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1660,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46B1E65-C5A6-4AA1-934F-537B33F93E9F}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1675,13 +1674,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1692,7 +1694,7 @@
       <c r="C3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -1706,7 +1708,7 @@
       <c r="C4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -1720,7 +1722,8 @@
       <c r="C5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
@@ -1729,7 +1732,7 @@
       <c r="C6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -1739,7 +1742,7 @@
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
       <c r="C7" s="8"/>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -1753,7 +1756,7 @@
       <c r="C8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -1767,7 +1770,8 @@
       <c r="C9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
@@ -1776,7 +1780,7 @@
       <c r="C10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -1786,7 +1790,7 @@
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
       <c r="C11" s="8"/>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -1800,7 +1804,7 @@
       <c r="C12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -1814,7 +1818,7 @@
       <c r="C13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E13" s="14" t="s">

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC71F274-7440-4D0C-B8BD-8EC1DE1CBD2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D86F0DD-9300-459E-A664-135B02BD5211}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -570,6 +570,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,8 +587,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -871,7 +871,7 @@
   <dimension ref="B1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -903,7 +903,7 @@
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.12820512820512819</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -935,15 +935,15 @@
       <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="2:18" ht="18.75" customHeight="1">
@@ -966,13 +966,13 @@
       <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:18" ht="18.75" customHeight="1">
@@ -995,13 +995,13 @@
       <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="2:18" ht="18.75" customHeight="1">
@@ -1024,13 +1024,13 @@
       <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="2:18" ht="18.75" customHeight="1">
@@ -1048,16 +1048,16 @@
         <v>27</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="K7" s="13">
+      <c r="K7" s="15">
         <f>M17</f>
-        <v>0.12820512820512819</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="2:18" ht="18.75" customHeight="1">
@@ -1074,13 +1074,13 @@
       <c r="G8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="2:18" ht="18.75" customHeight="1">
@@ -1094,13 +1094,13 @@
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="2:18" ht="18.75" customHeight="1">
@@ -1114,13 +1114,13 @@
       <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="2:18" ht="18.75" customHeight="1">
@@ -1136,13 +1136,13 @@
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="2:18" ht="18.75" customHeight="1">
@@ -1158,13 +1158,13 @@
       <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="2:18" ht="18.75" customHeight="1">
@@ -1180,13 +1180,13 @@
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="2:18" ht="18.75" customHeight="1">
@@ -1202,13 +1202,13 @@
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="2:18" ht="18.75" customHeight="1">
@@ -1246,11 +1246,11 @@
       <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="1" t="s">
@@ -1263,18 +1263,18 @@
         <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L17" s="1">
         <f>COUNTIF($E$3:$E$49,"〇")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.12820512820512819</v>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1295,11 +1295,11 @@
       </c>
       <c r="L18" s="1">
         <f>COUNTIF($E$3:$E$49,"△")</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>2.564102564102564E-2</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
@@ -1320,11 +1320,11 @@
       </c>
       <c r="L19" s="1">
         <f>COUNTIF($E$3:$E$49,"×")</f>
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>0.84615384615384615</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -1514,7 +1514,7 @@
         <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -1528,7 +1528,7 @@
         <v>35</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -1542,7 +1542,7 @@
         <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -1556,7 +1556,7 @@
         <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -1570,7 +1570,7 @@
         <v>35</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -1598,7 +1598,7 @@
         <v>35</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -1612,7 +1612,7 @@
         <v>35</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -1626,7 +1626,7 @@
         <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1660,7 +1660,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1697,7 +1697,7 @@
       <c r="D3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       <c r="D4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       <c r="D6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       <c r="D7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       <c r="D8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       <c r="D10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       <c r="D11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1804,10 +1804,10 @@
       <c r="C12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="D13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="9" t="s">
         <v>69</v>
       </c>
     </row>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D86F0DD-9300-459E-A664-135B02BD5211}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1D5B4E-F1D5-484D-B6C2-0ED23ED9A2BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="76">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -141,16 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステルス扉段ボール</t>
-    <rPh sb="4" eb="5">
-      <t>トビラ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステルスダクト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -284,10 +274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトルロゴ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完成率</t>
     <rPh sb="0" eb="2">
       <t>カンセイ</t>
@@ -360,10 +346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームオーバー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -431,6 +413,24 @@
   </si>
   <si>
     <t>《潜入！》コミカルな音楽</t>
+  </si>
+  <si>
+    <t>ステルス段ボール</t>
+    <rPh sb="4" eb="5">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤：オミット</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -483,15 +483,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -551,12 +557,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -587,6 +604,8 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -868,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R41"/>
+  <dimension ref="B1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -887,7 +906,11 @@
     <col min="10" max="10" width="1.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="17.25" customHeight="1"/>
+    <row r="1" spans="2:18" ht="17.25" customHeight="1">
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="2" spans="2:18" ht="18.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -899,11 +922,11 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.15384615384615385</v>
+        <v>0.2</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -915,28 +938,28 @@
     </row>
     <row r="3" spans="2:18" ht="18.75" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -948,23 +971,23 @@
     </row>
     <row r="4" spans="2:18" ht="18.75" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
@@ -977,23 +1000,23 @@
     </row>
     <row r="5" spans="2:18" ht="18.75" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -1006,23 +1029,23 @@
     </row>
     <row r="6" spans="2:18" ht="18.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -1035,22 +1058,22 @@
     </row>
     <row r="7" spans="2:18" ht="18.75" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2"/>
       <c r="K7" s="15">
         <f>M17</f>
-        <v>0.15384615384615385</v>
+        <v>0.2</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -1062,17 +1085,17 @@
     </row>
     <row r="8" spans="2:18" ht="18.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -1085,14 +1108,14 @@
     </row>
     <row r="9" spans="2:18" ht="18.75" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -1105,14 +1128,14 @@
     </row>
     <row r="10" spans="2:18" ht="18.75" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -1128,13 +1151,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -1150,13 +1173,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -1172,13 +1195,11 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -1194,13 +1215,11 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -1216,13 +1235,11 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1238,16 +1255,14 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="13"/>
@@ -1257,24 +1272,22 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L17" s="1">
         <f>COUNTIF($E$3:$E$49,"〇")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.15384615384615385</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1282,24 +1295,22 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" s="1">
         <f>COUNTIF($E$3:$E$49,"△")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>0.23076923076923078</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
@@ -1307,45 +1318,43 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L19" s="1">
         <f>COUNTIF($E$3:$E$49,"×")</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>0.61538461538461542</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
+      <c r="B20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L20" s="4">
         <f>L17+L18+L19</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M20" s="1"/>
     </row>
@@ -1353,40 +1362,42 @@
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
+      <c r="C21" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
+      <c r="C22" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1"/>
+      <c r="C23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -1394,11 +1405,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:13">
@@ -1406,11 +1419,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:13">
@@ -1418,11 +1433,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -1430,11 +1447,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:13">
@@ -1442,11 +1461,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -1454,184 +1475,200 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>40</v>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>45</v>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>30</v>
+      <c r="E33" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E41">
-    <sortCondition descending="1" ref="B41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E42">
+    <sortCondition descending="1" ref="B3"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="K16:M16"/>
@@ -1681,148 +1718,148 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
       <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
       <c r="C11" s="8"/>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1D5B4E-F1D5-484D-B6C2-0ED23ED9A2BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178B7773-CEB5-40D6-9BC2-59315A3C6F5F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="79">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -174,13 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>油</t>
-    <rPh sb="0" eb="1">
-      <t>アブラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バランスボール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -430,6 +423,22 @@
     <rPh sb="0" eb="1">
       <t>アカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://peritune.com/blog/2017/11/29/valiant/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【無料フリーBGM】Valiant / 壮大なエピック・オーケストラ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -497,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -557,17 +566,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -605,7 +603,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -908,7 +908,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" customHeight="1">
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="18.75" customHeight="1">
@@ -922,11 +922,11 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -938,28 +938,28 @@
     </row>
     <row r="3" spans="2:18" ht="18.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -971,23 +971,23 @@
     </row>
     <row r="4" spans="2:18" ht="18.75" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
@@ -1000,23 +1000,23 @@
     </row>
     <row r="5" spans="2:18" ht="18.75" customHeight="1">
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -1029,23 +1029,23 @@
     </row>
     <row r="6" spans="2:18" ht="18.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -1057,23 +1057,23 @@
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2"/>
       <c r="K7" s="15">
         <f>M17</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -1085,17 +1085,17 @@
     </row>
     <row r="8" spans="2:18" ht="18.75" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -1108,14 +1108,14 @@
     </row>
     <row r="9" spans="2:18" ht="18.75" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -1128,14 +1128,14 @@
     </row>
     <row r="10" spans="2:18" ht="18.75" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -1154,10 +1154,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -1176,10 +1176,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1251,18 +1251,18 @@
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="13"/>
@@ -1272,22 +1272,22 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L17" s="1">
         <f>COUNTIF($E$3:$E$49,"〇")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1295,22 +1295,22 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L18" s="1">
         <f>COUNTIF($E$3:$E$49,"△")</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>0.27500000000000002</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
@@ -1318,22 +1318,22 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="L19" s="1">
         <f>COUNTIF($E$3:$E$49,"×")</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>0.52500000000000002</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -1341,16 +1341,16 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L20" s="4">
         <f>L17+L18+L19</f>
@@ -1363,13 +1363,13 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:13">
@@ -1377,13 +1377,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:13">
@@ -1391,13 +1391,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -1408,10 +1408,10 @@
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:13">
@@ -1419,13 +1419,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:13">
@@ -1436,10 +1436,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -1450,10 +1450,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:13">
@@ -1464,10 +1464,10 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -1478,10 +1478,10 @@
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -1492,10 +1492,10 @@
         <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:13">
@@ -1506,10 +1506,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:13">
@@ -1520,10 +1520,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -1534,136 +1534,136 @@
         <v>14</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>29</v>
+      <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1694,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46B1E65-C5A6-4AA1-934F-537B33F93E9F}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1718,149 +1718,156 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
       <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
       <c r="C11" s="8"/>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1877,6 +1884,7 @@
     <hyperlink ref="E12" r:id="rId5" xr:uid="{568CF0AD-D207-4E96-896E-D3C3A26496F6}"/>
     <hyperlink ref="E13" r:id="rId6" xr:uid="{B20C8142-5EC2-43ED-91A2-495C24918BD2}"/>
     <hyperlink ref="E10" r:id="rId7" xr:uid="{02A2F903-859E-4050-AF17-CDDE73662257}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{627E44B8-71B8-4BBD-9C40-5F9553AC71F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178B7773-CEB5-40D6-9BC2-59315A3C6F5F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EDC33A-BF81-4F7C-A16C-1B6F5EEE5D16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="81">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -370,9 +370,6 @@
     <t>SE　警報　サイレン　パターン2</t>
   </si>
   <si>
-    <t>http://commons.nicovideo.jp/material/nc173466</t>
-  </si>
-  <si>
     <t>【効果音】侵入者現るサイレン音</t>
   </si>
   <si>
@@ -400,9 +397,6 @@
   </si>
   <si>
     <t>潜入</t>
-  </si>
-  <si>
-    <t>http://commons.nicovideo.jp/material/nc109223</t>
   </si>
   <si>
     <t>《潜入！》コミカルな音楽</t>
@@ -439,6 +433,22 @@
   </si>
   <si>
     <t>【無料フリーBGM】Valiant / 壮大なエピック・オーケストラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://commons.nicovideo.jp/material/nc109223</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://commons.nicovideo.jp/material/nc173466</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミック</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -889,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -908,7 +918,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" customHeight="1">
       <c r="C1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="18.75" customHeight="1">
@@ -926,7 +936,7 @@
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1036,7 +1046,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>24</v>
@@ -1073,7 +1083,7 @@
       <c r="H7" s="2"/>
       <c r="K7" s="15">
         <f>M17</f>
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -1088,7 +1098,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -1128,7 +1138,7 @@
     </row>
     <row r="10" spans="2:18" ht="18.75" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -1157,7 +1167,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -1179,7 +1189,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -1272,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
@@ -1283,11 +1293,11 @@
       </c>
       <c r="L17" s="1">
         <f>COUNTIF($E$3:$E$49,"〇")</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1306,11 +1316,11 @@
       </c>
       <c r="L18" s="1">
         <f>COUNTIF($E$3:$E$49,"△")</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>0.375</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
@@ -1329,11 +1339,11 @@
       </c>
       <c r="L19" s="1">
         <f>COUNTIF($E$3:$E$49,"×")</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>0.375</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -1347,7 +1357,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>37</v>
@@ -1391,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>33</v>
@@ -1419,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>33</v>
@@ -1551,7 +1561,7 @@
         <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -1565,7 +1575,7 @@
         <v>33</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -1579,7 +1589,7 @@
         <v>34</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -1593,7 +1603,7 @@
         <v>33</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -1607,7 +1617,7 @@
         <v>33</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -1621,7 +1631,7 @@
         <v>34</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -1635,7 +1645,7 @@
         <v>33</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -1649,7 +1659,7 @@
         <v>33</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -1663,7 +1673,7 @@
         <v>33</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1697,7 +1707,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1780,10 +1790,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1794,10 +1804,10 @@
         <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1808,10 +1818,10 @@
         <v>44</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1822,20 +1832,20 @@
         <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
       <c r="C11" s="8"/>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -1846,10 +1856,10 @@
         <v>46</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1860,10 +1870,10 @@
         <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:4">
@@ -1885,6 +1895,8 @@
     <hyperlink ref="E13" r:id="rId6" xr:uid="{B20C8142-5EC2-43ED-91A2-495C24918BD2}"/>
     <hyperlink ref="E10" r:id="rId7" xr:uid="{02A2F903-859E-4050-AF17-CDDE73662257}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{627E44B8-71B8-4BBD-9C40-5F9553AC71F1}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{B37B3A1E-DC11-4F83-97A6-0A1B9A4A8FDC}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{CEA5786D-479E-4C40-BABA-E1E1BD8E0431}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EDC33A-BF81-4F7C-A16C-1B6F5EEE5D16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BA54EC-5558-47DE-9699-17B54D7EDDB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -363,13 +363,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://commons.nicovideo.jp/material/nc172043</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SE　警報　サイレン　パターン2</t>
-  </si>
-  <si>
     <t>【効果音】侵入者現るサイレン音</t>
   </si>
   <si>
@@ -379,24 +372,6 @@
   <si>
     <t>スイング01</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.lanstarfreebgm.com/jinguru-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GameOver2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear5</t>
-  </si>
-  <si>
-    <t>http://commons.nicovideo.jp/material/nc177857</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>潜入</t>
   </si>
   <si>
     <t>《潜入！》コミカルな音楽</t>
@@ -428,14 +403,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://peritune.com/blog/2017/11/29/valiant/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【無料フリーBGM】Valiant / 壮大なエピック・オーケストラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -449,6 +416,72 @@
   </si>
   <si>
     <t>ギミック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://dova-s.jp/bgm/play1754.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のんきな日常(ビッチ、スピード加工)</t>
+    <rPh sb="15" eb="17">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.hmix.net/music_gallery/image/game.htm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幸福の余韻</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夕暮れの風</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩き</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://on-jin.com/sound/hito.php?bunr=%E8%B6%B3%E9%9F%B3&amp;kate=%E8%B6%B3%E3%83%BB%E8%84%9A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足音・革靴１(長さ加工)</t>
+    <rPh sb="0" eb="2">
+      <t>アシオト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワグツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足音・革靴２(長さ加工)</t>
+    <rPh sb="0" eb="2">
+      <t>アシオト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワグツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -899,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -918,7 +951,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" customHeight="1">
       <c r="C1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="18.75" customHeight="1">
@@ -1046,7 +1079,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>24</v>
@@ -1098,7 +1131,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -1138,7 +1171,7 @@
     </row>
     <row r="10" spans="2:18" ht="18.75" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -1189,7 +1222,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -1282,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
@@ -1401,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>33</v>
@@ -1429,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>33</v>
@@ -1704,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46B1E65-C5A6-4AA1-934F-537B33F93E9F}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1716,7 +1749,7 @@
     <col min="2" max="2" width="8.125" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="43.5" customWidth="1"/>
-    <col min="5" max="5" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="100" customWidth="1"/>
     <col min="6" max="6" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1763,65 +1796,69 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="1"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1832,20 +1869,22 @@
         <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="1" t="s">
-        <v>69</v>
+      <c r="C11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -1853,50 +1892,49 @@
         <v>43</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="17"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B13" xr:uid="{9F143224-39DE-409B-B223-8FC10CEC14F4}">
-      <formula1>$H$5:$H$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B15" xr:uid="{9F143224-39DE-409B-B223-8FC10CEC14F4}">
+      <formula1>$H$6:$H$12</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{5274FBE6-A067-451D-A4BB-B4B27A138189}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{58C13F98-3E2A-4358-8AA4-5741BD54B002}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{F1CD8338-9147-4009-BDAF-CA99803FB3BC}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{D249F57D-F0E0-4B5F-872A-AA8B48924C77}"/>
-    <hyperlink ref="E12" r:id="rId5" xr:uid="{568CF0AD-D207-4E96-896E-D3C3A26496F6}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{B20C8142-5EC2-43ED-91A2-495C24918BD2}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{02A2F903-859E-4050-AF17-CDDE73662257}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{627E44B8-71B8-4BBD-9C40-5F9553AC71F1}"/>
-    <hyperlink ref="E11" r:id="rId9" xr:uid="{B37B3A1E-DC11-4F83-97A6-0A1B9A4A8FDC}"/>
-    <hyperlink ref="E7" r:id="rId10" xr:uid="{CEA5786D-479E-4C40-BABA-E1E1BD8E0431}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{D249F57D-F0E0-4B5F-872A-AA8B48924C77}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{568CF0AD-D207-4E96-896E-D3C3A26496F6}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{B37B3A1E-DC11-4F83-97A6-0A1B9A4A8FDC}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{CEA5786D-479E-4C40-BABA-E1E1BD8E0431}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{F83DD9CB-A07C-4266-ADF2-C9A669E2B23F}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{F51600C2-3E1B-4F7A-9F26-80927EBA72E6}"/>
+    <hyperlink ref="E5" r:id="rId9" xr:uid="{E676958C-E854-40DB-8186-31BD1C7874FB}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{8E9EF525-5989-4F63-AF8B-9B7DB840578E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BA54EC-5558-47DE-9699-17B54D7EDDB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5630DA0E-64DF-4D36-B6FB-154EE196F577}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1612,16 +1612,16 @@
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5630DA0E-64DF-4D36-B6FB-154EE196F577}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB09FEC-1CA6-43C8-8AE9-17A73EAB8131}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="82">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -482,6 +482,10 @@
     <rPh sb="9" eb="11">
       <t>カコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -930,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R42"/>
+  <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -969,7 +973,7 @@
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.55000000000000004</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1116,7 +1120,7 @@
       <c r="H7" s="2"/>
       <c r="K7" s="15">
         <f>M17</f>
-        <v>0.55000000000000004</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -1274,15 +1278,15 @@
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
+      <c r="B15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1294,15 +1298,15 @@
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="s">
-        <v>26</v>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>36</v>
@@ -1315,22 +1319,22 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L17" s="1">
-        <f>COUNTIF($E$3:$E$49,"〇")</f>
+        <f>COUNTIF($E$3:$E$48,"〇")</f>
         <v>22</v>
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.55000000000000004</v>
+        <v>0.5641025641025641</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1338,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
@@ -1348,56 +1352,58 @@
         <v>29</v>
       </c>
       <c r="L18" s="1">
-        <f>COUNTIF($E$3:$E$49,"△")</f>
+        <f>COUNTIF($E$3:$E$48,"△")</f>
         <v>7</v>
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>0.17499999999999999</v>
+        <v>0.17948717948717949</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1"/>
+      <c r="B19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="1">
-        <f>COUNTIF($E$3:$E$49,"×")</f>
-        <v>11</v>
+        <f>COUNTIF($E$3:$E$48,"×")</f>
+        <v>10</v>
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>0.27500000000000002</v>
+        <v>0.25641025641025639</v>
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="L20" s="4">
         <f>L17+L18+L19</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M20" s="1"/>
     </row>
@@ -1406,10 +1412,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>30</v>
@@ -1420,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>33</v>
@@ -1433,14 +1439,14 @@
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>64</v>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -1448,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>33</v>
@@ -1462,13 +1468,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:13">
@@ -1476,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>33</v>
@@ -1490,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>33</v>
@@ -1504,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>33</v>
@@ -1518,10 +1524,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>26</v>
@@ -1532,26 +1538,26 @@
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1560,26 +1566,26 @@
         <v>3</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="16" t="s">
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1588,7 +1594,7 @@
         <v>47</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>33</v>
@@ -1598,30 +1604,30 @@
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="C35" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="C36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1630,7 +1636,7 @@
         <v>47</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>33</v>
@@ -1641,13 +1647,13 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>26</v>
@@ -1658,10 +1664,10 @@
         <v>43</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>26</v>
@@ -1672,7 +1678,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>33</v>
@@ -1686,7 +1692,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>33</v>
@@ -1695,22 +1701,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E41">
     <sortCondition descending="1" ref="B3"/>
   </sortState>
   <mergeCells count="3">

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB09FEC-1CA6-43C8-8AE9-17A73EAB8131}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50319972-C9A4-4CBE-AE24-748FFBADD9B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="82">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -160,13 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>穴</t>
-    <rPh sb="0" eb="1">
-      <t>アナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ネズミ捕り</t>
     <rPh sb="3" eb="4">
       <t>ト</t>
@@ -395,10 +388,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オイル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -482,6 +471,14 @@
     <rPh sb="9" eb="11">
       <t>カコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -634,6 +631,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,10 +649,6 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -934,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R41"/>
+  <dimension ref="B1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -951,14 +948,16 @@
     <col min="8" max="8" width="6.5" customWidth="1"/>
     <col min="9" max="9" width="4.75" customWidth="1"/>
     <col min="10" max="10" width="1.25" customWidth="1"/>
+    <col min="19" max="19" width="9.75" customWidth="1"/>
+    <col min="20" max="20" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="17.25" customHeight="1">
+    <row r="1" spans="2:22" ht="17.25" customHeight="1">
       <c r="C1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="2:18" ht="18.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" ht="18.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,11 +968,11 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.5641025641025641</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -983,310 +982,400 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="2:18" ht="18.75" customHeight="1">
+    <row r="3" spans="2:22" ht="18.75" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="2:18" ht="18.75" customHeight="1">
+      <c r="T3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="18.75" customHeight="1">
       <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H7" s="2"/>
-      <c r="K7" s="15">
+      <c r="K7" s="17">
         <f>M17</f>
-        <v>0.5641025641025641</v>
-      </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
       <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="1"/>
+      <c r="S7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
       <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="2:18" ht="18.75" customHeight="1">
+      <c r="S8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="18.75" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
       <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="2:18" ht="18.75" customHeight="1">
+      <c r="S9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="18.75" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="2:18" ht="18.75" customHeight="1">
+    <row r="11" spans="2:22" ht="18.75" customHeight="1">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
-        <v>26</v>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1297,184 +1386,190 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:22">
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L17" s="1">
-        <f>COUNTIF($E$3:$E$48,"〇")</f>
+        <f>COUNTIF($E$3:$E$40,"〇")</f>
         <v>22</v>
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.5641025641025641</v>
+        <v>0.70967741935483875</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="L18" s="1">
-        <f>COUNTIF($E$3:$E$48,"△")</f>
-        <v>7</v>
+        <f>COUNTIF($E$3:$E$40,"△")</f>
+        <v>3</v>
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>0.17948717948717949</v>
+        <v>9.6774193548387094E-2</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
-      <c r="B19" s="8" t="s">
-        <v>3</v>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" s="1">
-        <f>COUNTIF($E$3:$E$48,"×")</f>
-        <v>10</v>
+        <f>COUNTIF($E$3:$E$40,"×")</f>
+        <v>6</v>
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>0.25641025641025639</v>
+        <v>0.19354838709677419</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L20" s="4">
         <f>L17+L18+L19</f>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:13">
@@ -1482,13 +1577,11 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -1496,214 +1589,94 @@
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>26</v>
+      <c r="E32" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E41">
-    <sortCondition descending="1" ref="B3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E33">
+    <sortCondition descending="1" ref="E3"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="K16:M16"/>
@@ -1712,13 +1685,13 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{3A86D3E2-6260-46D7-8B1A-F07B604E82DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D25 U3:U9 D26:D27 D28:D1048576" xr:uid="{3A86D3E2-6260-46D7-8B1A-F07B604E82DB}">
       <formula1>$H$4:$H$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{947DE85F-9DEA-4262-A8CA-8C4B2360CEBD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25 V3:V9 E26:E27 E28:E1048576" xr:uid="{947DE85F-9DEA-4262-A8CA-8C4B2360CEBD}">
       <formula1>$I$4:$I$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{7282A0AD-45C2-43B2-AF8B-049C0EFFE9D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B25 S3:S9 B26:B27 B28:B1048576" xr:uid="{7282A0AD-45C2-43B2-AF8B-049C0EFFE9D3}">
       <formula1>$G$4:$G$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1753,144 +1726,144 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
       <c r="C8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1898,16 +1871,16 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="17"/>
+      <c r="D18" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50319972-C9A4-4CBE-AE24-748FFBADD9B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33BC6FB-926D-4394-AABE-99046B509D4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -934,7 +934,7 @@
   <dimension ref="B1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33BC6FB-926D-4394-AABE-99046B509D4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C4925A-076C-487F-A649-DB39847859AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="83">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -483,6 +483,13 @@
   </si>
   <si>
     <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーアイコン(チュートリアル用)</t>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -615,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -650,6 +657,8 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -931,16 +940,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V33"/>
+  <dimension ref="B1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="0.75" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
     <col min="6" max="6" width="1.625" customWidth="1"/>
@@ -972,7 +981,7 @@
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.70967741935483875</v>
+        <v>0.71875</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1165,7 +1174,7 @@
       <c r="H7" s="2"/>
       <c r="K7" s="17">
         <f>M17</f>
-        <v>0.70967741935483875</v>
+        <v>0.71875</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -1423,11 +1432,11 @@
       </c>
       <c r="L17" s="1">
         <f>COUNTIF($E$3:$E$40,"〇")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.70967741935483875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1452,7 +1461,7 @@
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>9.6774193548387094E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
@@ -1477,7 +1486,7 @@
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>0.19354838709677419</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -1498,7 +1507,7 @@
       </c>
       <c r="L20" s="4">
         <f>L17+L18+L19</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M20" s="1"/>
     </row>
@@ -1671,7 +1680,21 @@
         <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1728,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1762,13 +1785,13 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1776,13 +1799,13 @@
       <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1790,13 +1813,13 @@
       <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="18" t="s">
         <v>68</v>
       </c>
     </row>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C4925A-076C-487F-A649-DB39847859AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6334D837-9DDE-464F-AC1F-7F7E312C4839}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1457,11 +1457,11 @@
       </c>
       <c r="L18" s="1">
         <f>COUNTIF($E$3:$E$40,"△")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
@@ -1482,11 +1482,11 @@
       </c>
       <c r="L19" s="1">
         <f>COUNTIF($E$3:$E$40,"×")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>0.1875</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:13">

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6334D837-9DDE-464F-AC1F-7F7E312C4839}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99326027-EE94-4B58-BA64-8470C36FDE9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="81">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -474,15 +474,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -642,6 +634,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,8 +651,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -943,7 +935,7 @@
   <dimension ref="B1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -981,7 +973,7 @@
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.71875</v>
+        <v>0.78125</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1011,15 +1003,15 @@
       <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
       <c r="R3" s="6"/>
       <c r="S3" s="11" t="s">
         <v>21</v>
@@ -1054,13 +1046,13 @@
       <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="6"/>
       <c r="S4" s="11" t="s">
         <v>3</v>
@@ -1095,13 +1087,13 @@
       <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
       <c r="R5" s="6"/>
       <c r="S5" s="11" t="s">
         <v>3</v>
@@ -1136,13 +1128,13 @@
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
       <c r="R6" s="6"/>
       <c r="S6" s="11" t="s">
         <v>3</v>
@@ -1172,16 +1164,16 @@
         <v>24</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="K7" s="17">
+      <c r="K7" s="19">
         <f>M17</f>
-        <v>0.71875</v>
-      </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+        <v>0.78125</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
       <c r="R7" s="6"/>
       <c r="S7" s="11" t="s">
         <v>46</v>
@@ -1212,13 +1204,13 @@
       <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="6"/>
       <c r="S8" s="11" t="s">
         <v>3</v>
@@ -1244,13 +1236,13 @@
       <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
       <c r="R9" s="6"/>
       <c r="S9" s="11" t="s">
         <v>21</v>
@@ -1276,13 +1268,13 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="2:22" ht="18.75" customHeight="1">
@@ -1298,13 +1290,13 @@
       <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="2:22" ht="18.75" customHeight="1">
@@ -1320,13 +1312,13 @@
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="2:22" ht="18.75" customHeight="1">
@@ -1342,13 +1334,13 @@
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="2:22" ht="18.75" customHeight="1">
@@ -1364,13 +1356,13 @@
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="2:22" ht="18.75" customHeight="1">
@@ -1408,11 +1400,11 @@
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="1" t="s">
@@ -1432,11 +1424,11 @@
       </c>
       <c r="L17" s="1">
         <f>COUNTIF($E$3:$E$40,"〇")</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.71875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1457,11 +1449,11 @@
       </c>
       <c r="L18" s="1">
         <f>COUNTIF($E$3:$E$40,"△")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
@@ -1590,7 +1582,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -1604,7 +1596,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:13">
@@ -1628,7 +1620,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -1688,13 +1680,13 @@
         <v>3</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1720,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1791,7 +1783,7 @@
       <c r="D5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1802,10 +1794,10 @@
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1819,7 +1811,7 @@
       <c r="D7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>68</v>
       </c>
     </row>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99326027-EE94-4B58-BA64-8470C36FDE9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDDCBEA-A4C0-481E-8D3B-6ED6264A2578}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="84">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -481,6 +481,24 @@
     <t>キーアイコン(チュートリアル用)</t>
     <rPh sb="14" eb="15">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終電まであと</t>
+    <rPh sb="0" eb="2">
+      <t>シュウデン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掃除のおばちゃん</t>
+    <rPh sb="0" eb="2">
+      <t>ソウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -549,7 +567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -609,12 +627,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -651,6 +680,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -932,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V34"/>
+  <dimension ref="B1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -973,7 +1003,7 @@
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.78125</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1166,7 +1196,7 @@
       <c r="H7" s="2"/>
       <c r="K7" s="19">
         <f>M17</f>
-        <v>0.78125</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
@@ -1424,11 +1454,11 @@
       </c>
       <c r="L17" s="1">
         <f>COUNTIF($E$3:$E$40,"〇")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.78125</v>
+        <v>0.76470588235294112</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1449,11 +1479,11 @@
       </c>
       <c r="L18" s="1">
         <f>COUNTIF($E$3:$E$40,"△")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>6.25E-2</v>
+        <v>8.8235294117647065E-2</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
@@ -1478,7 +1508,7 @@
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>0.15625</v>
+        <v>0.14705882352941177</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -1499,7 +1529,7 @@
       </c>
       <c r="L20" s="4">
         <f>L17+L18+L19</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M20" s="1"/>
     </row>
@@ -1620,7 +1650,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -1632,7 +1662,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:13">
@@ -1644,7 +1674,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:13">
@@ -1658,7 +1688,7 @@
         <v>33</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -1687,6 +1717,34 @@
       </c>
       <c r="E34" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDDCBEA-A4C0-481E-8D3B-6ED6264A2578}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F3D0ED-F648-46A3-B926-EF7CAF52CCA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="86">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -478,13 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キーアイコン(チュートリアル用)</t>
-    <rPh sb="14" eb="15">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -496,9 +489,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>キーアイコン(WASD、Space、Enter)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワープパネル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>掃除のおばちゃん</t>
     <rPh sb="0" eb="2">
       <t>ソウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床ボタン</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -567,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -627,23 +635,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -680,7 +677,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -962,16 +958,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V37"/>
+  <dimension ref="B1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="0.75" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
     <col min="6" max="6" width="1.625" customWidth="1"/>
@@ -1003,7 +999,7 @@
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.76470588235294112</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1196,7 +1192,7 @@
       <c r="H7" s="2"/>
       <c r="K7" s="19">
         <f>M17</f>
-        <v>0.76470588235294112</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
@@ -1453,12 +1449,12 @@
         <v>26</v>
       </c>
       <c r="L17" s="1">
-        <f>COUNTIF($E$3:$E$40,"〇")</f>
-        <v>26</v>
+        <f>COUNTIF($E$3:$E$35,"〇")</f>
+        <v>27</v>
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.76470588235294112</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1478,12 +1474,12 @@
         <v>28</v>
       </c>
       <c r="L18" s="1">
-        <f>COUNTIF($E$3:$E$40,"△")</f>
+        <f>COUNTIF($E$3:$E$35,"△")</f>
         <v>3</v>
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>8.8235294117647065E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
@@ -1503,12 +1499,12 @@
         <v>30</v>
       </c>
       <c r="L19" s="1">
-        <f>COUNTIF($E$3:$E$40,"×")</f>
-        <v>5</v>
+        <f>COUNTIF($E$3:$E$35,"×")</f>
+        <v>3</v>
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>0.14705882352941177</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -1529,7 +1525,7 @@
       </c>
       <c r="L20" s="4">
         <f>L17+L18+L19</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M20" s="1"/>
     </row>
@@ -1591,16 +1587,14 @@
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:13">
@@ -1608,9 +1602,11 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1619,11 +1615,11 @@
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
+      <c r="C27" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>25</v>
@@ -1631,34 +1627,38 @@
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
@@ -1667,42 +1667,38 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -1710,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>34</v>
@@ -1724,33 +1720,46 @@
         <v>3</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="20" t="s">
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E33">
-    <sortCondition descending="1" ref="E3"/>
-  </sortState>
   <mergeCells count="3">
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="K3:Q6"/>
@@ -1758,13 +1767,13 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D25 U3:U9 D26:D27 D28:D1048576" xr:uid="{3A86D3E2-6260-46D7-8B1A-F07B604E82DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U9 D3:D1048576" xr:uid="{3A86D3E2-6260-46D7-8B1A-F07B604E82DB}">
       <formula1>$H$4:$H$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25 V3:V9 E26:E27 E28:E1048576" xr:uid="{947DE85F-9DEA-4262-A8CA-8C4B2360CEBD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V9 E3:E1048576" xr:uid="{947DE85F-9DEA-4262-A8CA-8C4B2360CEBD}">
       <formula1>$I$4:$I$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B25 S3:S9 B26:B27 B28:B1048576" xr:uid="{7282A0AD-45C2-43B2-AF8B-049C0EFFE9D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S9 B3:B1048576" xr:uid="{7282A0AD-45C2-43B2-AF8B-049C0EFFE9D3}">
       <formula1>$G$4:$G$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F3D0ED-F648-46A3-B926-EF7CAF52CCA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DAB4DF-80C7-41D7-AD4B-4FA76294AFF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="94">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -478,10 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>終電まであと</t>
     <rPh sb="0" eb="2">
       <t>シュウデン</t>
@@ -493,6 +489,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ばね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ワープパネル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -504,10 +504,78 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>床ボタン</t>
+    <t>踏むボタン</t>
     <rPh sb="0" eb="1">
-      <t>ユカ</t>
-    </rPh>
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機、走る</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクラの感圧版的な</t>
+    <rPh sb="5" eb="7">
+      <t>カンアツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下がきらきら光ってる</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ばね、スプリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンディング分岐最高</t>
+    <rPh sb="6" eb="8">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンディング分岐最低</t>
+    <rPh sb="6" eb="8">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余裕の</t>
+    <rPh sb="0" eb="2">
+      <t>ヨユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かろうじて</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -958,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V38"/>
+  <dimension ref="B1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:C36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -999,7 +1067,7 @@
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.81818181818181823</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1192,7 +1260,7 @@
       <c r="H7" s="2"/>
       <c r="K7" s="19">
         <f>M17</f>
-        <v>0.81818181818181823</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
@@ -1450,11 +1518,11 @@
       </c>
       <c r="L17" s="1">
         <f>COUNTIF($E$3:$E$35,"〇")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.81818181818181823</v>
+        <v>0.84848484848484851</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1500,11 +1568,11 @@
       </c>
       <c r="L19" s="1">
         <f>COUNTIF($E$3:$E$35,"×")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>9.0909090909090912E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -1689,7 +1757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:7">
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1698,29 +1766,29 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>32</v>
@@ -1729,35 +1797,107 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:7">
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="D36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DAB4DF-80C7-41D7-AD4B-4FA76294AFF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B806EB-989B-4DAA-B55F-4988246F7301}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10560" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="95">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -576,6 +576,10 @@
   </si>
   <si>
     <t>かろうじて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1028,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1780,7 +1784,7 @@
         <v>34</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -1808,7 +1812,7 @@
         <v>34</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G36" t="s">
         <v>86</v>
@@ -1825,7 +1829,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G37" t="s">
         <v>87</v>
@@ -1859,7 +1863,7 @@
         <v>34</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G39" t="s">
         <v>89</v>
@@ -1876,7 +1880,7 @@
         <v>34</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
         <v>92</v>
@@ -1893,7 +1897,7 @@
         <v>34</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
         <v>93</v>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B806EB-989B-4DAA-B55F-4988246F7301}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773B640-C9B8-457A-9E57-3E3026005493}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="94">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -471,10 +471,6 @@
     <rPh sb="9" eb="11">
       <t>カコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1032,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1547,11 +1543,11 @@
       </c>
       <c r="L18" s="1">
         <f>COUNTIF($E$3:$E$35,"△")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.12121212121212122</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
@@ -1572,11 +1568,11 @@
       </c>
       <c r="L19" s="1">
         <f>COUNTIF($E$3:$E$35,"×")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="5">
         <f>L19/L20</f>
-        <v>6.0606060606060608E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -1770,7 +1766,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -1778,13 +1774,13 @@
         <v>3</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -1792,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>32</v>
@@ -1806,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>34</v>
@@ -1815,7 +1811,7 @@
         <v>25</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -1823,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>34</v>
@@ -1832,7 +1828,7 @@
         <v>25</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -1840,16 +1836,16 @@
         <v>3</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -1857,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>34</v>
@@ -1866,7 +1862,7 @@
         <v>25</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -1874,7 +1870,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>34</v>
@@ -1883,7 +1879,7 @@
         <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -1891,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>34</v>
@@ -1900,7 +1896,7 @@
         <v>25</v>
       </c>
       <c r="G41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/制作リスト.xlsx
+++ b/制作リスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773B640-C9B8-457A-9E57-3E3026005493}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B914BA18-29FD-4966-8142-1CBECBB743BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12480" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="K2" s="7">
         <f>M17</f>
-        <v>0.84848484848484851</v>
+        <v>0.87878787878787878</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1260,7 +1260,7 @@
       <c r="H7" s="2"/>
       <c r="K7" s="19">
         <f>M17</f>
-        <v>0.84848484848484851</v>
+        <v>0.87878787878787878</v>
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
@@ -1518,11 +1518,11 @@
       </c>
       <c r="L17" s="1">
         <f>COUNTIF($E$3:$E$35,"〇")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M17" s="5">
         <f>L17/L20</f>
-        <v>0.84848484848484851</v>
+        <v>0.87878787878787878</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="L18" s="1">
         <f>COUNTIF($E$3:$E$35,"△")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" s="5">
         <f>L18/L20</f>
-        <v>0.12121212121212122</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -1842,7 +1842,7 @@
         <v>34</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G38" t="s">
         <v>87</v>
